--- a/src/test/resources/Documents/33239/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/33239/Actual/JobPlanning.xlsx
@@ -65,40 +65,19 @@
     <t>Content Sheets  2p</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Cut</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">169-Press Approval Task </t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>406-45" Polar 115ED Cutter</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>Not allocated</t>
-  </si>
-  <si>
-    <t>Press Approval Task</t>
-  </si>
-  <si>
-    <t>Digital Print F 4x0</t>
-  </si>
-  <si>
-    <t>Versafire Heidelberg</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Cut</t>
-  </si>
-  <si>
-    <t>406-45" Polar 115ED Cutter</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>406-45" Polar 115ED Cutter
@@ -108,6 +87,27 @@
 403-54" Polar 137ED Cutter</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169-Press Approval Task </t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Press Approval Task</t>
+  </si>
+  <si>
+    <t>Digital Print F 4x0</t>
+  </si>
+  <si>
+    <t>Versafire Heidelberg</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>Content Sheets - Mac Assembly</t>
   </si>
   <si>
@@ -132,13 +132,13 @@
     <t>Front &amp; Spine Insert  2p</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>35</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>34</t>
   </si>
   <si>
     <t>Front &amp; Spine Insert - Prepress</t>
@@ -1486,10 +1486,10 @@
         <v>18</v>
       </c>
       <c r="L2" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s" s="14">
         <v>22</v>
-      </c>
-      <c r="M2" t="s" s="14">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1527,7 +1527,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s" s="26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s" s="27">
         <v>24</v>
@@ -1538,13 +1538,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s" s="29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="30">
         <v>18</v>
       </c>
       <c r="D4" t="s" s="31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s" s="32">
         <v>18</v>
@@ -1553,7 +1553,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s" s="34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s" s="35">
         <v>18</v>
@@ -1568,10 +1568,10 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="39">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1691,7 +1691,7 @@
         <v>18</v>
       </c>
       <c r="L7" t="s" s="78">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s" s="79">
         <v>24</v>
@@ -1732,10 +1732,10 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="91">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s" s="92">
         <v>22</v>
-      </c>
-      <c r="M8" t="s" s="92">
-        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1743,13 +1743,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="s" s="94">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s" s="95">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="96">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s" s="97">
         <v>18</v>
@@ -1773,10 +1773,10 @@
         <v>18</v>
       </c>
       <c r="L9" t="s" s="104">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s" s="105">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1922,7 +1922,7 @@
         <v>18</v>
       </c>
       <c r="G13" t="s" s="151">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s" s="152">
         <v>18</v>
@@ -1963,7 +1963,7 @@
         <v>18</v>
       </c>
       <c r="G14" t="s" s="164">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s" s="165">
         <v>18</v>
@@ -2045,7 +2045,7 @@
         <v>18</v>
       </c>
       <c r="G16" t="s" s="190">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s" s="191">
         <v>18</v>
